--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.096636" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.114759" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.781075" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.534509" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.98655" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.014849" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.49392" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.157732" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.438794" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
